--- a/output/outputFile.xlsx
+++ b/output/outputFile.xlsx
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>.DS_Store</t>
+          <t>Борисоглебск</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>83,3%</t>
+          <t>64,6%</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Борисоглебск</t>
+          <t>Кострома</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>64,6%</t>
+          <t>63,5%</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Кострома</t>
+          <t>Зубова Поляна</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>63,5%</t>
+          <t>65,4%</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Зубова Поляна</t>
+          <t>Вологда</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>65,4%</t>
+          <t>80,8%</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Вологда</t>
+          <t>Лиски</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>80,8%</t>
+          <t>76,9%</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Лиски</t>
+          <t>Чебоксары</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Чебоксары</t>
+          <t>Пенза-1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>76,9%</t>
+          <t>88,5%</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Пенза-1</t>
+          <t>Саратов-1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>64,4%</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Саратов-1</t>
+          <t>Богоявленск</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>64,4%</t>
+          <t>57,7%</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Богоявленск</t>
+          <t>комплекс Адлер</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>57,7%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>комплекс Адлер</t>
+          <t>Камень-на-Оби</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>68,8%</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Камень-на-Оби</t>
+          <t>Прохладная</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>58,8%</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Прохладная</t>
+          <t>Оренбург</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>58,8%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Оренбург</t>
+          <t>Йошкар-Ола</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>86,4%</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Йошкар-Ола</t>
+          <t>Коршуниха</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>86,4%</t>
+          <t>77,1%</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Коршуниха</t>
+          <t>Магдагачи</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>77,1%</t>
+          <t>89,4%</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Магдагачи</t>
+          <t>Плесецкая</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>60,2%</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Плесецкая</t>
+          <t>Минеральные воды</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>60,2%</t>
+          <t>77,5%</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Минеральные воды</t>
+          <t>Иваново</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>77,5%</t>
+          <t>81,7%</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Иваново</t>
+          <t>Самара</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>81,7%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Самара</t>
+          <t>Великие Луки</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>64,4%</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Великие Луки</t>
+          <t>Белореченская</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>64,4%</t>
+          <t>79,5%</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Белореченская</t>
+          <t>Вяземский</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>79,5%</t>
+          <t>76,0%</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Вяземский</t>
+          <t>Сызрань-Город</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>61,5%</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Сызрань-Город</t>
+          <t>Зима</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>61,5%</t>
+          <t>93,3%</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Зима</t>
+          <t>Иркутск-Сортировочный</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>85,4%</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Иркутск-Сортировочный</t>
+          <t>неизвестный</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>85,4%</t>
+          <t>95,2%</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>неизвестный</t>
+          <t>Ноябрьск-1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>89,4%</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ноябрьск-1</t>
+          <t>Усолье-Сибирское</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>88,5%</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Усолье-Сибирское</t>
+          <t>Спасск-Дальний</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Спасск-Дальний</t>
+          <t>Инта</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>55,2%</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Инта</t>
+          <t>Россошь</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>55,2%</t>
+          <t>73,9%</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Россошь</t>
+          <t>Нерюнгри</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>73,9%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Нерюнгри</t>
+          <t>Новочеркасск</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>77,3%</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Новочеркасск</t>
+          <t>Мантурово</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>77,3%</t>
+          <t>47,9%</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Мантурово</t>
+          <t>Аткарск</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>47,9%</t>
+          <t>95,2%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Аткарск</t>
+          <t>Сыктывкар</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>57,7%</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Сыктывкар</t>
+          <t>Исилькуль</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>57,7%</t>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Исилькуль</t>
+          <t>Вокзал Хоста</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>98,9%</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Вокзал Хоста</t>
+          <t>Когалым</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Когалым</t>
+          <t>Забайкальск</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>78,8%</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Забайкальск</t>
+          <t>Дальнереченск</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>76,0%</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Дальнереченск</t>
+          <t>Кинель</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>54,2%</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Кинель</t>
+          <t>Купино</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>54,2%</t>
+          <t>68,8%</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Купино</t>
+          <t>Верхний Баскунчак</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>54,7%</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Верхний Баскунчак</t>
+          <t>Рязань-2</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>96,6%</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Рязань-2</t>
+          <t>Новокузнецк</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>93,3%</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Новокузнецк</t>
+          <t>Тобольск</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>99,0%</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Тобольск</t>
+          <t>Магнитогорск</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>71,2%</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Магнитогорск</t>
+          <t>Завитая</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>86,4%</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Завитая</t>
+          <t>Ульяновск-Центральный</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>86,4%</t>
+          <t>90,4%</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ульяновск-Центральный</t>
+          <t>Вязовая</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>68,3%</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Вязовая</t>
+          <t>Зверево</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>68,3%</t>
+          <t>80,7%</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Зверево</t>
+          <t>Ижевск</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>80,7%</t>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ижевск</t>
+          <t>Сковородино</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>86,5%</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Сковородино</t>
+          <t>Череповец</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>57,7%</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Череповец</t>
+          <t>Котлас-Южный</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>57,7%</t>
+          <t>80,8%</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Котлас-Южный</t>
+          <t>Чита-2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>80,8%</t>
+          <t>82,7%</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Чита-2</t>
+          <t>Орск</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>82,7%</t>
+          <t>66,3%</t>
         </is>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Орск</t>
+          <t>Исакогорка</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>66,3%</t>
+          <t>61,2%</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Исакогорка</t>
+          <t>Борзя</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>61,2%</t>
+          <t>89,4%</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Борзя</t>
+          <t>Рузаевка</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Рузаевка</t>
+          <t>Ленинск-Кузнецкий</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>73,8%</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ленинск-Кузнецкий</t>
+          <t>Туймазы</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>73,8%</t>
+          <t>53,8%</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Туймазы</t>
+          <t>Вокзал Ростов-Ярославский</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>53,8%</t>
+          <t>65,4%</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Вокзал Ростов-Ярославский</t>
+          <t>Балаково</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>65,4%</t>
+          <t>84,4%</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Балаково</t>
+          <t>Мошково</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>68,2%</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Мошково</t>
+          <t>Усть-Илимск</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>68,2%</t>
+          <t>72,7%</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Усть-Илимск</t>
+          <t>Кавказская</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>72,7%</t>
+          <t>80,2%</t>
         </is>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Кавказская</t>
+          <t>Шумерля</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>80,2%</t>
+          <t>86,2%</t>
         </is>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Шумерля</t>
+          <t>Чулымская</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>86,2%</t>
+          <t>70,5%</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Чулымская</t>
+          <t>Кинешма</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>70,5%</t>
+          <t>49,0%</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Кинешма</t>
+          <t>Армавир-2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>49,0%</t>
+          <t>73,9%</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Армавир-2</t>
+          <t>Ачинск-1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>73,9%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ачинск-1</t>
+          <t>Дербент</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>37,5%</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Дербент</t>
+          <t>Брянск-Орловский</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>76,9%</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Брянск-Орловский</t>
+          <t>Шимановская</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>76,9%</t>
+          <t>86,5%</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Шимановская</t>
+          <t>Лихая</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>58,0%</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Лихая</t>
+          <t>Новосибирск-Западный</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>58,0%</t>
+          <t>73,9%</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Новосибирск-Западный</t>
+          <t>Туапсе</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>73,9%</t>
+          <t>83,7%</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Туапсе</t>
+          <t>Поворино</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>83,7%</t>
+          <t>82,7%</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Поворино</t>
+          <t>Чистоозерная</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>82,7%</t>
+          <t>71,9%</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Чистоозерная</t>
+          <t>Калачинская</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>71,9%</t>
+          <t>76,9%</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Калачинская</t>
+          <t>Наушки</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>76,9%</t>
+          <t>91,7%</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Наушки</t>
+          <t>Усинск</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>62,5%</t>
         </is>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Усинск</t>
+          <t>Бурея</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>62,5%</t>
+          <t>86,5%</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Бурея</t>
+          <t>Вокзал Тверь</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>92,3%</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Вокзал Тверь</t>
+          <t>Кропачево</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>76,0%</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Кропачево</t>
+          <t>Мариинск</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>83,7%</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Мариинск</t>
+          <t>Ярославль-Главный</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>83,7%</t>
+          <t>58,7%</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Ярославль-Главный</t>
+          <t>Шахунья</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>58,7%</t>
+          <t>71,2%</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Шахунья</t>
+          <t>Ртищево</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Ртищево</t>
+          <t>Сибай</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>62,5%</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Сибай</t>
+          <t>Чернышевск</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>62,5%</t>
+          <t>85,6%</t>
         </is>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Чернышевск</t>
+          <t>Адлер</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Адлер</t>
+          <t>Волгоград</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Волгоград</t>
+          <t>Заозерная</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>84,6%</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Заозерная</t>
+          <t>Аксаково</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>84,6%</t>
+          <t>50,0%</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Аксаково</t>
+          <t>Чапаевск</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>60,6%</t>
         </is>
       </c>
     </row>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Чапаевск</t>
+          <t>Жигулевское море</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>60,6%</t>
+          <t>67,3%</t>
         </is>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Жигулевское море</t>
+          <t>Буй</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>67,3%</t>
+          <t>54,5%</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Буй</t>
+          <t>Каменск-Уральский</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>83,7%</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Каменск-Уральский</t>
+          <t>Курганная</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>83,7%</t>
+          <t>78,1%</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Курганная</t>
+          <t>Вельск</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>78,1%</t>
+          <t>72,1%</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Вельск</t>
+          <t>Староминская</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>72,1%</t>
+          <t>79,5%</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Староминская</t>
+          <t>Пыть-Ях</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>79,5%</t>
+          <t>79,8%</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Пыть-Ях</t>
+          <t>Киселевск</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>79,8%</t>
+          <t>71,9%</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Киселевск</t>
+          <t>Вокзал Смоленск</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>71,9%</t>
+          <t>81,7%</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Вокзал Смоленск</t>
+          <t>Великий Новгород</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>81,7%</t>
+          <t>59,4%</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Великий Новгород</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>59,4%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Новотроицк</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>72,1%</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Новотроицк</t>
+          <t>Лоо</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>72,1%</t>
+          <t>84,1%</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Лоо</t>
+          <t>Волгодонская</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>84,1%</t>
+          <t>46,9%</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Волгодонская</t>
+          <t>Великий Устюг</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>46,9%</t>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Великий Устюг</t>
+          <t>Крымская</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>81,8%</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Крымская</t>
+          <t>Таловая</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>81,8%</t>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Таловая</t>
+          <t>Ухта</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>55,8%</t>
         </is>
       </c>
     </row>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ухта</t>
+          <t>Архара</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>55,8%</t>
+          <t>90,6%</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Архара</t>
+          <t>Татарская</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>48,8%</t>
         </is>
       </c>
     </row>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Татарская</t>
+          <t>Прокопьевск</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>48,8%</t>
+          <t>73,8%</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Прокопьевск</t>
+          <t>Кулунда</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>73,8%</t>
+          <t>73,9%</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Кулунда</t>
+          <t>Калуга-1</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>73,9%</t>
+          <t>85,2%</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Калуга-1</t>
+          <t>Кирсанов</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>85,2%</t>
+          <t>95,8%</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Кирсанов</t>
+          <t>Арчеда</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>84,4%</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Арчеда</t>
+          <t>Миасс</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>84,6%</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Миасс</t>
+          <t>Глазов</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>84,6%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Глазов</t>
+          <t>Тында</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>83,7%</t>
         </is>
       </c>
     </row>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Тында</t>
+          <t>Зеленый Дол</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>83,7%</t>
+          <t>66,2%</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Зеленый Дол</t>
+          <t>Котельниково</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>66,2%</t>
+          <t>60,7%</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Котельниково</t>
+          <t>Шилка</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>89,4%</t>
         </is>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Шилка</t>
+          <t>Урюпино</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>42,5%</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Урюпино</t>
+          <t>Северобайкальск</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Северобайкальск</t>
+          <t>Георгиевск</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>38,9%</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Георгиевск</t>
+          <t>Коноша</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>61,5%</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Коноша</t>
+          <t>Славгород</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>61,5%</t>
+          <t>71,9%</t>
         </is>
       </c>
     </row>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Славгород</t>
+          <t>Серов</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>71,9%</t>
+          <t>89,4%</t>
         </is>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Серов</t>
+          <t>Ростов-Главный</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>98,1%</t>
         </is>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ростов-Главный</t>
+          <t>Сочи</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>97,1%</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Сочи</t>
+          <t>Первоуральск</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>97,7%</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Первоуральск</t>
+          <t>Рубцовск</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>73,1%</t>
         </is>
       </c>
     </row>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Рубцовск</t>
+          <t>Армавир-1</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>73,1%</t>
+          <t>77,1%</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Армавир-1</t>
+          <t>Владикавказ</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>77,1%</t>
+          <t>70,0%</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Владикавказ</t>
+          <t>Ярославль-Московский</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>70,0%</t>
+          <t>73,1%</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ярославль-Московский</t>
+          <t>Янаул</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>73,1%</t>
+          <t>90,6%</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Янаул</t>
+          <t>Курган</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>94,2%</t>
         </is>
       </c>
     </row>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Курган</t>
+          <t>Тольятти</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>55,8%</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Тольятти</t>
+          <t>Набережные челны</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>55,8%</t>
+          <t>78,8%</t>
         </is>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Набережные челны</t>
+          <t>Воронеж</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Воронеж</t>
+          <t>Могоча</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>76,0%</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Могоча</t>
+          <t>Болотное</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>71,2%</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Болотное</t>
+          <t>Слюдянка</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>82,7%</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Слюдянка</t>
+          <t>Каменская</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>82,7%</t>
+          <t>97,7%</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Каменская</t>
+          <t>Данилов</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>59,1%</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Данилов</t>
+          <t>Вокзал Петрозаводск</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>59,1%</t>
+          <t>51,0%</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Вокзал Петрозаводск</t>
+          <t>Улан-Удэ</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>51,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Улан-Удэ</t>
+          <t>Шумиха</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>76,0%</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Шумиха</t>
+          <t>Барабинск</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Барабинск</t>
+          <t>Тоннельная</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>79,5%</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Тоннельная</t>
+          <t>Томск-1</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>79,5%</t>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Томск-1</t>
+          <t>Ружино</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>79,2%</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Ружино</t>
+          <t>Елец</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>77,9%</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Елец</t>
+          <t>Новосибирск-Восточный</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>77,9%</t>
+          <t>80,2%</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Новосибирск-Восточный</t>
+          <t>Петровский Завод</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>80,2%</t>
+          <t>78,8%</t>
         </is>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Петровский Завод</t>
+          <t>Белово</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>99,0%</t>
         </is>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Белово</t>
+          <t>Северодвинск</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>53,8%</t>
         </is>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Северодвинск</t>
+          <t>Златоуст</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>53,8%</t>
+          <t>78,8%</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Златоуст</t>
+          <t>Кисловодск</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>62,5%</t>
         </is>
       </c>
     </row>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Кисловодск</t>
+          <t>Лазаревская</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>62,5%</t>
+          <t>83,0%</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Лазаревская</t>
+          <t>Петров Вал</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>83,0%</t>
+          <t>67,5%</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Петров Вал</t>
+          <t>Липецк</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>67,5%</t>
+          <t>95,8%</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Липецк</t>
+          <t>Вихоревка</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>98,1%</t>
         </is>
       </c>
     </row>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Вихоревка</t>
+          <t>Бердяуш</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5077,7 +5077,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>72,1%</t>
         </is>
       </c>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Бердяуш</t>
+          <t>Грязи Воронежские</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>72,1%</t>
+          <t>77,1%</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Грязи Воронежские</t>
+          <t>Бугульма</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>77,1%</t>
+          <t>83,7%</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Бугульма</t>
+          <t>Новокуйбышевская</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>83,7%</t>
+          <t>64,6%</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Новокуйбышевская</t>
+          <t>Рыбинск</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>64,6%</t>
+          <t>99,0%</t>
         </is>
       </c>
     </row>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Рыбинск</t>
+          <t>Сургут</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>86,5%</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Сургут</t>
+          <t>Белая Калитва</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>72,2%</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Белая Калитва</t>
+          <t>Благовещенск</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>72,2%</t>
+          <t>89,4%</t>
         </is>
       </c>
     </row>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Благовещенск</t>
+          <t>Тимашевская</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>76,1%</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Тимашевская</t>
+          <t>Навашино</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>76,1%</t>
+          <t>65,4%</t>
         </is>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Навашино</t>
+          <t>Кемерово</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>65,4%</t>
+          <t>70,8%</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Кемерово</t>
+          <t>Черкесск</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>70,8%</t>
+          <t>57,8%</t>
         </is>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Черкесск</t>
+          <t>Тихоокеанская</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>57,8%</t>
+          <t>76,0%</t>
         </is>
       </c>
     </row>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Тихоокеанская</t>
+          <t>Ершов</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>68,2%</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ершов</t>
+          <t>Иркутск-Пассажирский</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>68,2%</t>
+          <t>93,3%</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Иркутск-Пассажирский</t>
+          <t>Сызрань-1</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>67,7%</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Сызрань-1</t>
+          <t>Нальчик</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>67,7%</t>
+          <t>41,7%</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Нальчик</t>
+          <t>Чертково</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Чертково</t>
+          <t>Карталы</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>79,8%</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Карталы</t>
+          <t>Сосногорск</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>79,8%</t>
+          <t>43,8%</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Сосногорск</t>
+          <t>Никель</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>72,1%</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Никель</t>
+          <t>Рязань-1</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>72,1%</t>
+          <t>88,6%</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Рязань-1</t>
+          <t>Воркута</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>62,5%</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Воркута</t>
+          <t>Кизляр</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Кизляр</t>
+          <t>Эсто-Садок</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>62,5%</t>
+          <t>98,9%</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Эсто-Садок</t>
+          <t>Бира</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>72,1%</t>
         </is>
       </c>
     </row>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Бира</t>
+          <t>Абакан</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>72,1%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Абакан</t>
+          <t>Димитровград</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>80,8%</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Димитровград</t>
+          <t>Дзержинск</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>80,8%</t>
+          <t>93,8%</t>
         </is>
       </c>
     </row>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Дзержинск</t>
+          <t>Шарья</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>50,0%</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Шарья</t>
+          <t>Таксимо</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>89,4%</t>
         </is>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Таксимо</t>
+          <t>Свободный</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>89,4%</t>
+          <t>84,6%</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Свободный</t>
+          <t>Барнаул</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>84,6%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Барнаул</t>
+          <t>Вокзал Красноуфимск</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>54,8%</t>
         </is>
       </c>
     </row>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Вокзал Красноуфимск</t>
+          <t>Горячий Ключ</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Горячий Ключ</t>
+          <t>Усть-Катав</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>66,3%</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Усть-Катав</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>66,3%</t>
+          <t>67,7%</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Няндома</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>67,7%</t>
+          <t>53,4%</t>
         </is>
       </c>
     </row>
@@ -5903,7 +5903,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Няндома</t>
+          <t>Екатеринбург</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>53,4%</t>
+          <t>99,0%</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Екатеринбург</t>
+          <t>Киров</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>92,3%</t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Киров</t>
+          <t>Грозный</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>52,1%</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Грозный</t>
+          <t>Новосибирск-Южный</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>71,2%</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Новосибирск-Южный</t>
+          <t>Нижнекамск</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>54,8%</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Нижнекамск</t>
+          <t>Роза Хутор</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Роза Хутор</t>
+          <t>Балашов Пассажирский</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>70,8%</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Балашов Пассажирский</t>
+          <t>Мичуринск-Уральский</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>70,8%</t>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -6079,7 +6079,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Мичуринск-Уральский</t>
+          <t>Агрыз</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>80,8%</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Агрыз</t>
+          <t>Ноябрьск-2</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>80,8%</t>
+          <t>91,3%</t>
         </is>
       </c>
     </row>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ноябрьск-2</t>
+          <t>Каргат</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>73,9%</t>
         </is>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Каргат</t>
+          <t>Белгород</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>73,9%</t>
+          <t>73,1%</t>
         </is>
       </c>
     </row>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Белгород</t>
+          <t>Галич</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>73,1%</t>
+          <t>52,1%</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Галич</t>
+          <t>Топки</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>72,5%</t>
         </is>
       </c>
     </row>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Топки</t>
+          <t>Биробиджан</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>72,5%</t>
+          <t>76,0%</t>
         </is>
       </c>
     </row>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Биробиджан</t>
+          <t>Микунь</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>54,2%</t>
         </is>
       </c>
     </row>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Микунь</t>
+          <t>Искитим</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>54,2%</t>
+          <t>70,0%</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Искитим</t>
+          <t>Махачкала</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>70,0%</t>
+          <t>56,2%</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Махачкала</t>
+          <t>Карымская</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>56,2%</t>
+          <t>86,5%</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Карымская</t>
+          <t>Красноярск</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Красноярск</t>
+          <t>Тула</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>85,6%</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Тула</t>
+          <t>Новороссийск</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>80,2%</t>
         </is>
       </c>
     </row>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Новороссийск</t>
+          <t>Арзамас-2</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>80,2%</t>
+          <t>78,8%</t>
         </is>
       </c>
     </row>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Арзамас-2</t>
+          <t>Потьма</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>85,6%</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Потьма</t>
+          <t>Мурманск</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>54,8%</t>
         </is>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Мурманск</t>
+          <t>Тюмень</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -6463,7 +6463,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Тюмень</t>
+          <t>Астрахань</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Астрахань</t>
+          <t>Курск</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -6507,7 +6507,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>84,6%</t>
         </is>
       </c>
     </row>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Курск</t>
+          <t>Ессентуки</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>84,6%</t>
+          <t>68,8%</t>
         </is>
       </c>
     </row>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ессентуки</t>
+          <t>Гродеково</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>73,8%</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Гродеково</t>
+          <t>Олимпийский парк</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>73,8%</t>
+          <t>99,0%</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Олимпийский парк</t>
+          <t>Сибирцево</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>81,8%</t>
         </is>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Сибирцево</t>
+          <t>Хабаровск-1</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>81,8%</t>
+          <t>92,3%</t>
         </is>
       </c>
     </row>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Хабаровск-1</t>
+          <t>Облучье</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>88,5%</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Облучье</t>
+          <t>Невинномысск</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>47,2%</t>
         </is>
       </c>
     </row>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Невинномысск</t>
+          <t>Выборг</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>47,2%</t>
+          <t>73,1%</t>
         </is>
       </c>
     </row>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Выборг</t>
+          <t>Тамбов</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>73,1%</t>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Тамбов</t>
+          <t>Называевская</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>76,0%</t>
         </is>
       </c>
     </row>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Называевская</t>
+          <t>Озинки</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>55,6%</t>
         </is>
       </c>
     </row>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Озинки</t>
+          <t>Валуйки</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>55,6%</t>
+          <t>68,3%</t>
         </is>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Валуйки</t>
+          <t>Юрга-1</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>68,3%</t>
+          <t>72,9%</t>
         </is>
       </c>
     </row>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Юрга-1</t>
+          <t>Заринская</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>72,9%</t>
+          <t>75,0%</t>
         </is>
       </c>
     </row>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Заринская</t>
+          <t>Сальск</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>66,2%</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Сальск</t>
+          <t>Камышлов</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>66,2%</t>
+          <t>90,9%</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Камышлов</t>
+          <t>Ейск</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>85,2%</t>
         </is>
       </c>
     </row>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ейск</t>
+          <t>Нурлат</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>85,2%</t>
+          <t>70,2%</t>
         </is>
       </c>
     </row>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Нурлат</t>
+          <t>Комсомольск-на-Амуре</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>70,2%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Комсомольск-на-Амуре</t>
+          <t>Тогучин</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6947,7 +6947,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>71,2%</t>
         </is>
       </c>
     </row>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Тогучин</t>
+          <t>Тихорецкая</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>78,8%</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Тихорецкая</t>
+          <t>Новый Ургал</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>76,9%</t>
         </is>
       </c>
     </row>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Новый Ургал</t>
+          <t>Уссурийск</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>76,9%</t>
+          <t>85,6%</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Уссурийск</t>
+          <t>Аша</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -7035,7 +7035,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>27,9%</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Аша</t>
+          <t>Бийск</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>71,2%</t>
         </is>
       </c>
     </row>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Бийск</t>
+          <t>Уфа</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -7079,7 +7079,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>80,8%</t>
         </is>
       </c>
     </row>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Уфа</t>
+          <t>Анапа</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>80,8%</t>
+          <t>80,2%</t>
         </is>
       </c>
     </row>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Анапа</t>
+          <t>Алейская</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>80,2%</t>
+          <t>70,8%</t>
         </is>
       </c>
     </row>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Алейская</t>
+          <t>Муром</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>70,8%</t>
+          <t>46,2%</t>
         </is>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Муром</t>
+          <t>Арсеньев</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>63,5%</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Арсеньев</t>
+          <t>Миллерово</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>63,5%</t>
+          <t>42,9%</t>
         </is>
       </c>
     </row>
@@ -7201,7 +7201,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Миллерово</t>
+          <t>Владивосток</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>81,7%</t>
         </is>
       </c>
     </row>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Владивосток</t>
+          <t>Краснодар-1</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>81,7%</t>
+          <t>79,8%</t>
         </is>
       </c>
     </row>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Краснодар-1</t>
+          <t>Новая Чара</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>79,8%</t>
+          <t>94,8%</t>
         </is>
       </c>
     </row>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Новая Чара</t>
+          <t>Анжерская</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>78,8%</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Анжерская</t>
+          <t>Псков</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>59,1%</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Псков</t>
+          <t>Белогорск</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>59,1%</t>
+          <t>96,2%</t>
         </is>
       </c>
     </row>
